--- a/Data/EC/NIT-9010747519.xlsx
+++ b/Data/EC/NIT-9010747519.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4F30538-0383-4828-A0CF-8F6F66AE479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD28D7EC-7579-492E-AEA7-E80F09EE7BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0449CBA-98DC-4C75-8468-CD789A61F805}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC02C8FF-11BF-446E-A472-06FED61ED03B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,118 +65,163 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8980417</t>
+  </si>
+  <si>
+    <t>EDIER CONEO TAFUR</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>1143362375</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO ELLES MONSALVE</t>
+  </si>
+  <si>
+    <t>1049828477</t>
+  </si>
+  <si>
+    <t>YOANIS MERCEDES HERRERA ORTEGA</t>
+  </si>
+  <si>
+    <t>73561394</t>
+  </si>
+  <si>
+    <t>VICENTE CANTILLO CORREA</t>
+  </si>
+  <si>
+    <t>23115780</t>
+  </si>
+  <si>
+    <t>FABIOLA GONGORA PEREZ</t>
+  </si>
+  <si>
+    <t>9096050</t>
+  </si>
+  <si>
+    <t>EDGARDO JIMENEZ ALTAMAR</t>
+  </si>
+  <si>
+    <t>1065376673</t>
+  </si>
+  <si>
+    <t>ADRIANA CRISTINA URANGO PESTANA</t>
+  </si>
+  <si>
     <t>1051893472</t>
   </si>
   <si>
     <t>SANDRA MARCELA MENDOZA SAN JUAN</t>
   </si>
   <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>1143362375</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO ELLES MONSALVE</t>
+    <t>6874828</t>
+  </si>
+  <si>
+    <t>ALEJANDRO ARTEAGA VARGAS</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>8980906</t>
+  </si>
+  <si>
+    <t>ANTONIO JOSE AYOLA CUELLO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>1049824752</t>
+  </si>
+  <si>
+    <t>MARK LEWIS AYOLA CUELLO</t>
+  </si>
+  <si>
+    <t>2304</t>
   </si>
   <si>
     <t>45527349</t>
   </si>
   <si>
     <t>LUISA CECILIA LUNA BARBOZA</t>
-  </si>
-  <si>
-    <t>1049824752</t>
-  </si>
-  <si>
-    <t>MARK LEWIS AYOLA CUELLO</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>8980906</t>
-  </si>
-  <si>
-    <t>ANTONIO JOSE AYOLA CUELLO</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -220,7 +265,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,7 +635,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C451F6E-A5FF-C9A0-F52D-5BDA82778FB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077695D4-A07A-9834-4EBE-63647FE47FE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -941,32 +986,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97EB178-8978-497A-99FD-1EBE93BC778A}">
-  <dimension ref="B2:J53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337E50E8-A47C-4D5E-B760-5AE6ED560063}">
+  <dimension ref="B2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -975,7 +1020,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -986,7 +1031,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -997,7 +1042,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1008,10 +1053,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1024,8 +1069,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1040,15 +1085,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1307423</v>
+        <v>1622409</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1056,27 +1101,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1096,16 +1141,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1122,13 +1167,13 @@
         <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>908526</v>
+        <v>0</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1196,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1219,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1185,690 +1230,874 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G20" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G21" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G23" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>737717</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
-      <c r="B47" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G47" s="24">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G47" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G49" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G50" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G51" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G52" s="18">
         <v>1160000</v>
       </c>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="26"/>
-    </row>
-    <row r="52" spans="2:10">
-      <c r="B52" s="32" t="s">
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="H52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="2:10">
-      <c r="B53" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="H53" s="1" t="s">
+      <c r="F53" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
+      <c r="D54" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="24">
+        <v>36341</v>
+      </c>
+      <c r="G55" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="26"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="H60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="32"/>
+      <c r="H61" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H60:J60"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010747519.xlsx
+++ b/Data/EC/NIT-9010747519.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD28D7EC-7579-492E-AEA7-E80F09EE7BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2BE250-2F29-43E0-ADAA-503481EB45A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BC02C8FF-11BF-446E-A472-06FED61ED03B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6BF94D79-49F8-4BD9-AB2B-FAD342B5CE08}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,163 +65,124 @@
     <t>CC</t>
   </si>
   <si>
-    <t>8980417</t>
-  </si>
-  <si>
-    <t>EDIER CONEO TAFUR</t>
+    <t>1143362375</t>
+  </si>
+  <si>
+    <t>LUIS EDUARDO ELLES MONSALVE</t>
   </si>
   <si>
     <t>2112</t>
   </si>
   <si>
-    <t>1143362375</t>
-  </si>
-  <si>
-    <t>LUIS EDUARDO ELLES MONSALVE</t>
-  </si>
-  <si>
-    <t>1049828477</t>
-  </si>
-  <si>
-    <t>YOANIS MERCEDES HERRERA ORTEGA</t>
-  </si>
-  <si>
-    <t>73561394</t>
-  </si>
-  <si>
-    <t>VICENTE CANTILLO CORREA</t>
-  </si>
-  <si>
-    <t>23115780</t>
-  </si>
-  <si>
-    <t>FABIOLA GONGORA PEREZ</t>
-  </si>
-  <si>
-    <t>9096050</t>
-  </si>
-  <si>
-    <t>EDGARDO JIMENEZ ALTAMAR</t>
-  </si>
-  <si>
-    <t>1065376673</t>
-  </si>
-  <si>
-    <t>ADRIANA CRISTINA URANGO PESTANA</t>
-  </si>
-  <si>
     <t>1051893472</t>
   </si>
   <si>
     <t>SANDRA MARCELA MENDOZA SAN JUAN</t>
   </si>
   <si>
-    <t>6874828</t>
-  </si>
-  <si>
-    <t>ALEJANDRO ARTEAGA VARGAS</t>
+    <t>45527349</t>
+  </si>
+  <si>
+    <t>LUISA CECILIA LUNA BARBOZA</t>
+  </si>
+  <si>
+    <t>1049824752</t>
+  </si>
+  <si>
+    <t>MARK LEWIS AYOLA CUELLO</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>8980906</t>
+  </si>
+  <si>
+    <t>ANTONIO JOSE AYOLA CUELLO</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
   </si>
   <si>
     <t>2504</t>
   </si>
   <si>
-    <t>8980906</t>
-  </si>
-  <si>
-    <t>ANTONIO JOSE AYOLA CUELLO</t>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>1049824752</t>
-  </si>
-  <si>
-    <t>MARK LEWIS AYOLA CUELLO</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>45527349</t>
-  </si>
-  <si>
-    <t>LUISA CECILIA LUNA BARBOZA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -265,7 +226,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,7 +281,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -333,9 +296,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -535,23 +496,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,10 +540,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,7 +596,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077695D4-A07A-9834-4EBE-63647FE47FE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C2C765-96D9-C7CA-2C5E-31ADC0087C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -986,32 +947,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337E50E8-A47C-4D5E-B760-5AE6ED560063}">
-  <dimension ref="B2:J61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECFA8D1-A1D2-49B3-B9D3-4342D5060EEA}">
+  <dimension ref="B2:J55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1020,7 +981,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1031,7 +992,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1042,7 +1003,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1053,10 +1014,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1069,8 +1030,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1085,15 +1046,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1622409</v>
+        <v>1387423</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1101,27 +1062,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F13" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1141,16 +1102,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1167,13 +1128,13 @@
         <v>36341</v>
       </c>
       <c r="G16" s="18">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1190,13 +1151,13 @@
         <v>36341</v>
       </c>
       <c r="G17" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1213,13 +1174,13 @@
         <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1230,874 +1191,736 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F22" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1160000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F30" s="18">
         <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F31" s="18">
         <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
         <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G49" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G50" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G51" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
+    <row r="49" spans="2:10">
+      <c r="B49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G49" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="H54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="16" t="s">
+      <c r="C55" s="32"/>
+      <c r="H55" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F54" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="24">
-        <v>36341</v>
-      </c>
-      <c r="G55" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="H60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="H61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010747519.xlsx
+++ b/Data/EC/NIT-9010747519.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2BE250-2F29-43E0-ADAA-503481EB45A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A99DE83-345C-4A53-8055-77BB43CF6E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6BF94D79-49F8-4BD9-AB2B-FAD342B5CE08}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA98F903-C118-4C9E-96A5-1CD2A02913F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="61">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>2508</t>
+  </si>
+  <si>
+    <t>2509</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -226,7 +229,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,9 +284,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -296,7 +297,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -490,29 +493,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -531,19 +534,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -596,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C2C765-96D9-C7CA-2C5E-31ADC0087C03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94191AA-B898-990B-637F-1F0B58768131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -947,80 +956,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECFA8D1-A1D2-49B3-B9D3-4342D5060EEA}">
-  <dimension ref="B2:J55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3B1F7F-E911-477A-8121-6CCB75B41F98}">
+  <dimension ref="B2:J56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1030,13 +1039,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9010747519</v>
       </c>
@@ -1046,15 +1055,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
-        <v>1387423</v>
+        <v>1427423</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1062,27 +1071,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13" s="5">
         <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F13" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1102,16 +1111,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1121,20 +1130,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>36341</v>
       </c>
-      <c r="G16" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="G16" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1144,20 +1153,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>36341</v>
       </c>
-      <c r="G17" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="G17" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1167,20 +1176,20 @@
       <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>36341</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1423500</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1190,20 +1199,20 @@
       <c r="D19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>46400</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1160000</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1213,20 +1222,20 @@
       <c r="D20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>46400</v>
       </c>
-      <c r="G20" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="G20" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1236,20 +1245,20 @@
       <c r="D21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>46400</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1160000</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1259,20 +1268,20 @@
       <c r="D22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>46400</v>
       </c>
-      <c r="G22" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="G22" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1282,20 +1291,20 @@
       <c r="D23" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>46400</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1160000</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1305,20 +1314,20 @@
       <c r="D24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>46400</v>
       </c>
-      <c r="G24" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="G24" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1328,20 +1337,20 @@
       <c r="D25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1351,20 +1360,20 @@
       <c r="D26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="F26" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1374,20 +1383,20 @@
       <c r="D27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F27" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1397,20 +1406,20 @@
       <c r="D28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="F28" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1420,20 +1429,20 @@
       <c r="D29" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1443,20 +1452,20 @@
       <c r="D30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1466,20 +1475,20 @@
       <c r="D31" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1489,20 +1498,20 @@
       <c r="D32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1512,20 +1521,20 @@
       <c r="D33" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1535,20 +1544,20 @@
       <c r="D34" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F34" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="F34" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1558,20 +1567,20 @@
       <c r="D35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1581,20 +1590,20 @@
       <c r="D36" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1604,20 +1613,20 @@
       <c r="D37" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1627,20 +1636,20 @@
       <c r="D38" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1650,20 +1659,20 @@
       <c r="D39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F39" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1673,20 +1682,20 @@
       <c r="D40" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F40" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1696,20 +1705,20 @@
       <c r="D41" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1719,20 +1728,20 @@
       <c r="D42" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F42" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1742,20 +1751,20 @@
       <c r="D43" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1765,20 +1774,20 @@
       <c r="D44" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="F44" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1788,20 +1797,20 @@
       <c r="D45" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F45" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1811,20 +1820,20 @@
       <c r="D46" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F46" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1834,20 +1843,20 @@
       <c r="D47" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -1857,70 +1866,93 @@
       <c r="D48" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="B49" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="22" t="s">
+      <c r="F48" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="24">
-        <v>40000</v>
-      </c>
-      <c r="G49" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
-    </row>
-    <row r="54" spans="2:10">
-      <c r="B54" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="H54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="2:10">
-      <c r="B55" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="32"/>
+      <c r="F49" s="19">
+        <v>40000</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="26">
+        <v>40000</v>
+      </c>
+      <c r="G50" s="26">
+        <v>1000000</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="34"/>
       <c r="H55" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B56" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="H56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H56:J56"/>
     <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H54:J54"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
